--- a/cordlife_faqs1.xlsx
+++ b/cordlife_faqs1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amir.rahman\langchain\semantic_search_DL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amir.rahman\faq_nlp_searchengine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0679474A-7D39-4B76-A4AC-E43AD2F1AF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8757DFC0-48BB-4DF7-A3CE-A7926CEA87C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1557,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
